--- a/Журнал запросов ТУ.xlsx
+++ b/Журнал запросов ТУ.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
@@ -699,6 +699,186 @@
         </is>
       </c>
       <c r="F9" t="inlineStr">
+        <is>
+          <t>теплоснабжение</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>12262</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>17.11.2025</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ывпы</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>42:30:0228005:9</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Местоположение установлено относительно ориентира, расположенного в границах участка. Почтовый адрес ориентира: Кемеровская область, г Новокузнецк, Куйбышевский, ул Ливинская, д 3-А.</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>водоснабжение</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>12263</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>17.11.2025</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>ывпы</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>42:30:0228005:9</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Местоположение установлено относительно ориентира, расположенного в границах участка. Почтовый адрес ориентира: Кемеровская область, г Новокузнецк, Куйбышевский, ул Ливинская, д 3-А.</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>газоснабжение</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>12264</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>17.11.2025</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>ывпы</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>42:30:0228005:9</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Местоположение установлено относительно ориентира, расположенного в границах участка. Почтовый адрес ориентира: Кемеровская область, г Новокузнецк, Куйбышевский, ул Ливинская, д 3-А.</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>теплоснабжение</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12265</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>17.11.2025</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>245245</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>42:30:0103020:203</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Кемеровская обл, г. Новокузнецк, р-н Кузнецкий, ул. Аульская, д. 62, корп. 24, гараж №2 в блоке гаражей ГО "Форштадт-1"</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>водоснабжение</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12266</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>17.11.2025</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>245245</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>42:30:0103020:203</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Кемеровская обл, г. Новокузнецк, р-н Кузнецкий, ул. Аульская, д. 62, корп. 24, гараж №2 в блоке гаражей ГО "Форштадт-1"</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>газоснабжение</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>12267</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>17.11.2025</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>245245</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>42:30:0103020:203</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Кемеровская обл, г. Новокузнецк, р-н Кузнецкий, ул. Аульская, д. 62, корп. 24, гараж №2 в блоке гаражей ГО "Форштадт-1"</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
         <is>
           <t>теплоснабжение</t>
         </is>

--- a/Журнал запросов ТУ.xlsx
+++ b/Журнал запросов ТУ.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
@@ -879,6 +879,96 @@
         </is>
       </c>
       <c r="F15" t="inlineStr">
+        <is>
+          <t>теплоснабжение</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>12268</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>20.11.2025</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>6434315569</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>42:30:0201005:457</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Российская Федерация, Кемеровская область-Кузбасс, Новокузнецкий городской округ, город Новокузнецк, Куйбышевский район, улица Горняцкая, земельный участок 49</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>водоснабжение</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>12269</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>20.11.2025</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>6434315569</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>42:30:0201005:457</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Российская Федерация, Кемеровская область-Кузбасс, Новокузнецкий городской округ, город Новокузнецк, Куйбышевский район, улица Горняцкая, земельный участок 49</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>газоснабжение</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>12270</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>20.11.2025</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>6434315569</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>42:30:0201005:457</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Российская Федерация, Кемеровская область-Кузбасс, Новокузнецкий городской округ, город Новокузнецк, Куйбышевский район, улица Горняцкая, земельный участок 49</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
         <is>
           <t>теплоснабжение</t>
         </is>

--- a/Журнал запросов ТУ.xlsx
+++ b/Журнал запросов ТУ.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
@@ -969,6 +969,96 @@
         </is>
       </c>
       <c r="F18" t="inlineStr">
+        <is>
+          <t>теплоснабжение</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>12271</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>21.11.2025</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>345345 от 12.12.2025</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>42:30:0303090:961</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Кемеровская обл, г. Новокузнецк, пл. Побед, 1</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>водоснабжение</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>12272</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>21.11.2025</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>345345 от 12.12.2025</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>42:30:0303090:961</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Кемеровская обл, г. Новокузнецк, пл. Побед, 1</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>газоснабжение</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>12273</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>21.11.2025</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>345345 от 12.12.2025</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>42:30:0303090:961</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Кемеровская обл, г. Новокузнецк, пл. Побед, 1</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
         <is>
           <t>теплоснабжение</t>
         </is>

--- a/Журнал запросов ТУ.xlsx
+++ b/Журнал запросов ТУ.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
@@ -1059,6 +1059,96 @@
         </is>
       </c>
       <c r="F21" t="inlineStr">
+        <is>
+          <t>теплоснабжение</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>12274</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>22.11.2025</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>ывпывп</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>42:30:0207052:95</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Кемеровская область, г. Новокузнецк, ул. Промышленная, д. 36</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>водоснабжение</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>12275</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>22.11.2025</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>ывпывп</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>42:30:0207052:95</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Кемеровская область, г. Новокузнецк, ул. Промышленная, д. 36</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>газоснабжение</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>12276</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>22.11.2025</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>ывпывп</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>42:30:0207052:95</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Кемеровская область, г. Новокузнецк, ул. Промышленная, д. 36</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
         <is>
           <t>теплоснабжение</t>
         </is>
